--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="300">
   <si>
     <t>DisplayName</t>
   </si>
@@ -163,6 +163,27 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>NagaStoleMyBike | BST</t>
+  </si>
+  <si>
+    <t>napalm360</t>
+  </si>
+  <si>
+    <t>143002439514193920</t>
+  </si>
+  <si>
+    <t>NagaStoleMyBike</t>
+  </si>
+  <si>
+    <t>#9V2GRVGU</t>
+  </si>
+  <si>
+    <t>Purple Aki</t>
+  </si>
+  <si>
+    <t>#LGV0J9YPY</t>
+  </si>
+  <si>
     <t>3STAR Warrior</t>
   </si>
   <si>
@@ -175,6 +196,42 @@
     <t>#2R00YUCQY</t>
   </si>
   <si>
+    <t>Brow2H</t>
+  </si>
+  <si>
+    <t>#8CLR9YULP</t>
+  </si>
+  <si>
+    <t>Mori-san</t>
+  </si>
+  <si>
+    <t>mori.san</t>
+  </si>
+  <si>
+    <t>295225384083914762</t>
+  </si>
+  <si>
+    <t>Remkul</t>
+  </si>
+  <si>
+    <t>#YJR229CQY</t>
+  </si>
+  <si>
+    <t>Morito</t>
+  </si>
+  <si>
+    <t>#LJV82GGLC</t>
+  </si>
+  <si>
+    <t>Mori</t>
+  </si>
+  <si>
+    <t>#QYCU8Y88L</t>
+  </si>
+  <si>
+    <t>#QRRQ2RL29</t>
+  </si>
+  <si>
     <t>pg</t>
   </si>
   <si>
@@ -280,21 +337,6 @@
     <t>#U8J0QYG</t>
   </si>
   <si>
-    <t>Hona</t>
-  </si>
-  <si>
-    <t>hona.</t>
-  </si>
-  <si>
-    <t>115349553770659841</t>
-  </si>
-  <si>
-    <t>ItsHona</t>
-  </si>
-  <si>
-    <t>#QV8UJGVQR</t>
-  </si>
-  <si>
     <t>Mythos</t>
   </si>
   <si>
@@ -418,24 +460,6 @@
     <t>#PG2Y8RGU</t>
   </si>
   <si>
-    <t>Baleus</t>
-  </si>
-  <si>
-    <t>baleusblueberry</t>
-  </si>
-  <si>
-    <t>136501634518876162</t>
-  </si>
-  <si>
-    <t>#GYV8Q0U80</t>
-  </si>
-  <si>
-    <t>2FlutterShy</t>
-  </si>
-  <si>
-    <t>#88JCGVRY</t>
-  </si>
-  <si>
     <t>appable</t>
   </si>
   <si>
@@ -443,42 +467,6 @@
   </si>
   <si>
     <t>#CVYG8LU</t>
-  </si>
-  <si>
-    <t>ᶦᶰᵈ—͟͞乃L҉ΛƆҜ╰‿╯</t>
-  </si>
-  <si>
-    <t>cocachimp</t>
-  </si>
-  <si>
-    <t>1296476344275828739</t>
-  </si>
-  <si>
-    <t>#8RV0YC0PC</t>
-  </si>
-  <si>
-    <t>ＢＬＡＣＫ × ５</t>
-  </si>
-  <si>
-    <t>#Q2PJP2CGC</t>
-  </si>
-  <si>
-    <t>ＢＬＡＣＫ × ２</t>
-  </si>
-  <si>
-    <t>#8UQL8LL9G</t>
-  </si>
-  <si>
-    <t>ᶦᶰᵈ—͞乃L҉ΛƆҜ²╰‿╯</t>
-  </si>
-  <si>
-    <t>#L200JQ9J8</t>
-  </si>
-  <si>
-    <t>ＢＬＡＣＫ × ４</t>
-  </si>
-  <si>
-    <t>#9Q8RQPUG</t>
   </si>
   <si>
     <t>matanza90</t>
@@ -1611,10 +1599,10 @@
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1637,32 +1625,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1672,26 +1654,32 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1701,16 +1689,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>62</v>
@@ -1745,23 +1733,17 @@
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1771,32 +1753,26 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1806,22 +1782,22 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1835,22 +1811,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -1859,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1870,26 +1846,32 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1899,32 +1881,26 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1934,19 +1910,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1969,19 +1945,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2004,19 +1980,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -2039,32 +2015,26 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2074,19 +2044,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -2098,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2109,32 +2079,26 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2144,19 +2108,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -2179,19 +2143,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
@@ -2214,26 +2178,32 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2243,26 +2213,32 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2272,26 +2248,32 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2301,26 +2283,32 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2330,19 +2318,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -2365,19 +2353,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2400,32 +2388,26 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2435,19 +2417,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -2464,32 +2446,26 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2499,32 +2475,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2534,26 +2504,32 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2563,26 +2539,32 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2592,26 +2574,32 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2621,26 +2609,32 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2650,16 +2644,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>160</v>
@@ -2685,32 +2679,26 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2720,19 +2708,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -2749,16 +2737,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>168</v>
@@ -2766,9 +2754,15 @@
       <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2857,10 +2851,10 @@
         <v>179</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2883,19 +2877,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2907,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2918,32 +2912,26 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2953,19 +2941,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -2982,16 +2970,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>194</v>
@@ -2999,9 +2987,15 @@
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3014,13 +3008,13 @@
         <v>195</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>198</v>
@@ -3049,16 +3043,16 @@
         <v>199</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
@@ -3081,16 +3075,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>207</v>
@@ -3125,10 +3119,10 @@
         <v>210</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3140,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3151,16 +3145,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>216</v>
@@ -3175,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3203,15 +3197,9 @@
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3221,19 +3209,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3250,19 +3238,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3279,26 +3267,32 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3308,32 +3302,26 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -3343,19 +3331,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3372,19 +3360,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3401,19 +3389,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3430,19 +3418,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3459,19 +3447,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3488,19 +3476,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3517,16 +3505,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>239</v>
@@ -3534,9 +3522,15 @@
       <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -3651,32 +3645,26 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -3686,26 +3674,32 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3715,32 +3709,26 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3750,19 +3738,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3779,19 +3767,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3808,26 +3796,32 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3837,16 +3831,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>274</v>
@@ -3881,10 +3875,10 @@
         <v>277</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>280</v>
@@ -3916,10 +3910,10 @@
         <v>281</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -3942,7 +3936,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>284</v>
@@ -3951,10 +3945,10 @@
         <v>285</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
@@ -3966,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3977,32 +3971,26 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4012,19 +4000,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4041,19 +4029,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -4070,19 +4058,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
@@ -4099,16 +4087,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>299</v>
@@ -4116,9 +4104,15 @@
       <c r="F90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -4126,48 +4120,13 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O91">
+  <conditionalFormatting sqref="A2:O90">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O91">
+  <conditionalFormatting sqref="A2:O90">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
   <si>
     <t>DisplayName</t>
   </si>
@@ -244,6 +244,9 @@
     <t>#Q92UQQJCR</t>
   </si>
   <si>
+    <t>Eld</t>
+  </si>
+  <si>
     <t>pi314ever | PST</t>
   </si>
   <si>
@@ -598,18 +601,6 @@
     <t>#9RVQ22RCR</t>
   </si>
   <si>
-    <t>cmdnking</t>
-  </si>
-  <si>
-    <t>313542857614950401</t>
-  </si>
-  <si>
-    <t>Cmdn</t>
-  </si>
-  <si>
-    <t>#8Y9YG2G2Q</t>
-  </si>
-  <si>
     <t>Vojt | CET</t>
   </si>
   <si>
@@ -719,6 +710,57 @@
   </si>
   <si>
     <t>#GCGUJRP2Y</t>
+  </si>
+  <si>
+    <t>not so good</t>
+  </si>
+  <si>
+    <t>#GLC2PCVJ9</t>
+  </si>
+  <si>
+    <t>Clasher</t>
+  </si>
+  <si>
+    <t>#GGL9LJGYC</t>
+  </si>
+  <si>
+    <t>#QV8YYLG8C</t>
+  </si>
+  <si>
+    <t>#QCP8YQYVL</t>
+  </si>
+  <si>
+    <t>franklin</t>
+  </si>
+  <si>
+    <t>#GLYV8G9GY</t>
+  </si>
+  <si>
+    <t>olpp</t>
+  </si>
+  <si>
+    <t>#GGQYRPYVJ</t>
+  </si>
+  <si>
+    <t>chqtGpt</t>
+  </si>
+  <si>
+    <t>#G0GP8G9U9</t>
+  </si>
+  <si>
+    <t>#GY8JJRQ02</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>#GQ9P9RCGG</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>#GR280LYQC</t>
   </si>
   <si>
     <t>Big Daddy T</t>
@@ -1706,15 +1748,9 @@
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1870,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1881,19 +1917,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -1910,19 +1946,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1945,19 +1981,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -1969,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1980,19 +2016,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -2015,19 +2051,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
@@ -2044,19 +2080,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -2079,19 +2115,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -2108,19 +2144,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -2143,19 +2179,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
@@ -2178,19 +2214,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -2213,19 +2249,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
@@ -2237,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2248,19 +2284,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -2283,19 +2319,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
@@ -2318,19 +2354,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -2353,19 +2389,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2388,19 +2424,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -2417,19 +2453,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -2446,19 +2482,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
@@ -2475,19 +2511,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
@@ -2504,19 +2540,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -2528,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2539,19 +2575,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
@@ -2574,19 +2610,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
@@ -2609,19 +2645,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -2633,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2644,19 +2680,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -2679,19 +2715,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -2708,19 +2744,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -2737,19 +2773,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -2772,19 +2808,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2807,19 +2843,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -2842,19 +2878,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2877,19 +2913,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2901,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2912,19 +2948,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -2941,19 +2977,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -2970,19 +3006,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -2994,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3005,19 +3041,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -3029,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3040,19 +3076,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
@@ -3075,19 +3111,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -3099,7 +3135,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3110,19 +3146,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3134,7 +3170,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3145,32 +3181,26 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3180,19 +3210,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3209,19 +3239,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3238,26 +3268,32 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3267,32 +3303,26 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3302,19 +3332,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3331,19 +3361,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3360,19 +3390,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3389,19 +3419,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3418,19 +3448,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3447,19 +3477,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3476,19 +3506,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3505,32 +3535,26 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -3540,32 +3564,26 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3575,32 +3593,26 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3610,32 +3622,26 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3645,19 +3651,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3674,32 +3680,26 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3709,19 +3709,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -3738,19 +3738,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3796,19 +3796,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -3831,19 +3831,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
@@ -3866,19 +3866,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -3901,19 +3901,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -3936,32 +3936,26 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3971,26 +3965,32 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4000,19 +4000,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4029,19 +4029,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -4058,19 +4058,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -4120,13 +4120,304 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O90">
+  <conditionalFormatting sqref="A2:O99">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O90">
+  <conditionalFormatting sqref="A2:O99">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="313">
   <si>
     <t>DisplayName</t>
   </si>
@@ -202,6 +202,18 @@
     <t>#8CLR9YULP</t>
   </si>
   <si>
+    <t>TheHive</t>
+  </si>
+  <si>
+    <t>thehive1985</t>
+  </si>
+  <si>
+    <t>463802886879445024</t>
+  </si>
+  <si>
+    <t>#GRRUUC8V9</t>
+  </si>
+  <si>
     <t>Mori-san</t>
   </si>
   <si>
@@ -403,45 +415,6 @@
     <t>#90ULVLUC</t>
   </si>
   <si>
-    <t>dhruba</t>
-  </si>
-  <si>
-    <t>roronoazoro5075</t>
-  </si>
-  <si>
-    <t>1054828813248376883</t>
-  </si>
-  <si>
-    <t>dhruba.</t>
-  </si>
-  <si>
-    <t>#Y89GC9PR8</t>
-  </si>
-  <si>
-    <t>Dhurba</t>
-  </si>
-  <si>
-    <t>#YP2UQJLYL</t>
-  </si>
-  <si>
-    <t>danger gamer</t>
-  </si>
-  <si>
-    <t>#Y2YPGQU2J</t>
-  </si>
-  <si>
-    <t>danger gamer 4</t>
-  </si>
-  <si>
-    <t>#Q2U98U0YY</t>
-  </si>
-  <si>
-    <t>Taco Tornado</t>
-  </si>
-  <si>
-    <t>#LPQCPYR0P</t>
-  </si>
-  <si>
     <t>Protips</t>
   </si>
   <si>
@@ -472,6 +445,18 @@
     <t>#CVYG8LU</t>
   </si>
   <si>
+    <t>Carsonn</t>
+  </si>
+  <si>
+    <t>carson07794</t>
+  </si>
+  <si>
+    <t>1210118129532018738</t>
+  </si>
+  <si>
+    <t>#YYG92PY8Q</t>
+  </si>
+  <si>
     <t>matanza90</t>
   </si>
   <si>
@@ -815,6 +800,18 @@
   </si>
   <si>
     <t>#GY9UQQY82</t>
+  </si>
+  <si>
+    <t>SirFluffyy</t>
+  </si>
+  <si>
+    <t>sirfluffyy</t>
+  </si>
+  <si>
+    <t>133325280402997248</t>
+  </si>
+  <si>
+    <t>#900088PR9</t>
   </si>
   <si>
     <t>Sned | PST</t>
@@ -1769,17 +1766,23 @@
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1789,19 +1792,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
@@ -1818,19 +1821,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -1847,32 +1850,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1882,22 +1879,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -1906,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1917,26 +1914,32 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1946,32 +1949,26 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1981,13 +1978,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>83</v>
@@ -2005,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2025,11 +2022,11 @@
         <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2051,26 +2048,32 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2080,32 +2083,26 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2115,26 +2112,32 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2144,16 +2147,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>104</v>
@@ -2161,15 +2164,9 @@
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2181,7 +2178,7 @@
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2273,7 +2270,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2308,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2363,10 +2360,10 @@
         <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -2389,19 +2386,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2424,26 +2421,32 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2453,26 +2456,32 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2482,26 +2491,32 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2511,26 +2526,32 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2540,19 +2561,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -2564,7 +2585,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2575,19 +2596,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
@@ -2610,32 +2631,26 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2654,23 +2669,17 @@
         <v>155</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2680,19 +2689,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -2715,26 +2724,32 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2744,26 +2759,32 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2773,19 +2794,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -2808,19 +2829,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2843,32 +2864,26 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2887,23 +2902,17 @@
         <v>180</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2913,19 +2922,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2937,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2948,26 +2957,32 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2977,26 +2992,32 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3006,19 +3027,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -3030,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3041,19 +3062,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -3065,7 +3086,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3076,32 +3097,26 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3111,32 +3126,26 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3146,32 +3155,26 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3181,26 +3184,32 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3210,19 +3219,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3239,16 +3248,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>219</v>
@@ -3268,16 +3277,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>220</v>
@@ -3285,15 +3294,9 @@
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3303,13 +3306,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>221</v>
@@ -3332,19 +3335,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3361,16 +3364,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>225</v>
@@ -3390,13 +3393,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>226</v>
@@ -3419,19 +3422,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3448,19 +3451,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3477,16 +3480,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>232</v>
@@ -3506,19 +3509,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3535,19 +3538,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3564,16 +3567,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>237</v>
@@ -3593,19 +3596,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3622,16 +3625,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>240</v>
@@ -3651,13 +3654,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>241</v>
@@ -3680,13 +3683,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>243</v>
@@ -3709,26 +3712,32 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3738,26 +3747,32 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3767,26 +3782,32 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3796,19 +3817,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -3831,32 +3852,26 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3866,19 +3881,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -3901,22 +3916,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>15</v>
@@ -3925,7 +3940,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3936,19 +3951,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
@@ -3965,32 +3980,26 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4000,19 +4009,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4029,26 +4038,32 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -4058,26 +4073,32 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4087,19 +4108,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -4122,19 +4143,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4146,7 +4167,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -4157,19 +4178,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
@@ -4181,7 +4202,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4192,32 +4213,26 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4227,32 +4242,26 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4262,19 +4271,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -4291,19 +4300,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -4320,26 +4329,32 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -4347,77 +4362,13 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O99">
+  <conditionalFormatting sqref="A2:O97">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O99">
+  <conditionalFormatting sqref="A2:O97">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="313">
   <si>
     <t>DisplayName</t>
   </si>
@@ -73,6 +73,9 @@
     <t>#2PCJ8RVYG</t>
   </si>
   <si>
+    <t>Mem</t>
+  </si>
+  <si>
     <t>Sugma</t>
   </si>
   <si>
@@ -85,21 +88,6 @@
     <t>#R8GP8RGC</t>
   </si>
   <si>
-    <t>bran6.redditxray.co</t>
-  </si>
-  <si>
-    <t>1081050742921629776</t>
-  </si>
-  <si>
-    <t>bran6</t>
-  </si>
-  <si>
-    <t>#Y8P82GJJ</t>
-  </si>
-  <si>
-    <t>Mem</t>
-  </si>
-  <si>
     <t>skyeshade | BST</t>
   </si>
   <si>
@@ -118,7 +106,7 @@
     <t>Anas | IST</t>
   </si>
   <si>
-    <t>cip3her</t>
+    <t>zep_5yr</t>
   </si>
   <si>
     <t>462073179888812034</t>
@@ -163,6 +151,51 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>simptzy</t>
+  </si>
+  <si>
+    <t>661656968351580182</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>#82J0GRCCP</t>
+  </si>
+  <si>
+    <t>Clasher</t>
+  </si>
+  <si>
+    <t>#L22PL8VPC</t>
+  </si>
+  <si>
+    <t>Agent Limit</t>
+  </si>
+  <si>
+    <t>#VCQUYPR</t>
+  </si>
+  <si>
+    <t>Simp4Kay</t>
+  </si>
+  <si>
+    <t>#UCG9R0VV</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>#20CUYLRR0</t>
+  </si>
+  <si>
+    <t>Limit?</t>
+  </si>
+  <si>
+    <t>#LGPGYJGQG</t>
+  </si>
+  <si>
     <t>NagaStoleMyBike | BST</t>
   </si>
   <si>
@@ -202,48 +235,6 @@
     <t>#8CLR9YULP</t>
   </si>
   <si>
-    <t>TheHive</t>
-  </si>
-  <si>
-    <t>thehive1985</t>
-  </si>
-  <si>
-    <t>463802886879445024</t>
-  </si>
-  <si>
-    <t>#GRRUUC8V9</t>
-  </si>
-  <si>
-    <t>Mori-san</t>
-  </si>
-  <si>
-    <t>mori.san</t>
-  </si>
-  <si>
-    <t>295225384083914762</t>
-  </si>
-  <si>
-    <t>Remkul</t>
-  </si>
-  <si>
-    <t>#YJR229CQY</t>
-  </si>
-  <si>
-    <t>Morito</t>
-  </si>
-  <si>
-    <t>#LJV82GGLC</t>
-  </si>
-  <si>
-    <t>Mori</t>
-  </si>
-  <si>
-    <t>#QYCU8Y88L</t>
-  </si>
-  <si>
-    <t>#QRRQ2RL29</t>
-  </si>
-  <si>
     <t>pg</t>
   </si>
   <si>
@@ -328,6 +319,18 @@
     <t>#G9UVRJ0RR</t>
   </si>
   <si>
+    <t>ERDNUSSFLIP</t>
+  </si>
+  <si>
+    <t>flippi7125</t>
+  </si>
+  <si>
+    <t>745611083602985032</t>
+  </si>
+  <si>
+    <t>#99Q0R0YQ9</t>
+  </si>
+  <si>
     <t>Az7777</t>
   </si>
   <si>
@@ -701,9 +704,6 @@
   </si>
   <si>
     <t>#GLC2PCVJ9</t>
-  </si>
-  <si>
-    <t>Clasher</t>
   </si>
   <si>
     <t>#GGL9LJGYC</t>
@@ -1332,9 +1332,15 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1353,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -1382,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1402,19 +1408,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -1426,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1437,19 +1443,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1461,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1472,32 +1478,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1507,19 +1507,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -1553,9 +1553,15 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1565,32 +1571,26 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1600,22 +1600,22 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1629,32 +1629,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1664,19 +1658,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
@@ -1693,32 +1687,26 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1728,19 +1716,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1757,22 +1745,22 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -1781,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1792,26 +1780,32 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1821,22 +1815,22 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1850,26 +1844,32 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1879,32 +1879,26 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1914,31 +1908,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1949,19 +1943,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1978,20 +1972,20 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2002,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2013,20 +2007,20 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2037,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2048,20 +2042,20 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2083,19 +2077,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -2112,19 +2106,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -2147,19 +2141,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -2176,20 +2170,20 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2211,20 +2205,20 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2246,20 +2240,20 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2281,20 +2275,20 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2316,20 +2310,20 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
@@ -2340,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2351,20 +2345,20 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2375,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2386,20 +2380,20 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2421,20 +2415,20 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2445,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2456,20 +2450,20 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2491,20 +2485,20 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2526,20 +2520,20 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2550,7 +2544,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2561,20 +2555,20 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2585,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2596,20 +2590,20 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
@@ -2620,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2631,26 +2625,32 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2660,19 +2660,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -2689,32 +2689,26 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2724,20 +2718,20 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
@@ -2748,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2759,20 +2753,20 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2794,20 +2788,20 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2829,20 +2823,20 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2864,26 +2858,32 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2893,19 +2893,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2922,32 +2922,26 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2957,20 +2951,20 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2975,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2992,20 +2986,20 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3027,20 +3021,20 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3062,20 +3056,20 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
       </c>
@@ -3086,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3097,26 +3091,32 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3126,16 +3126,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>213</v>
@@ -3155,16 +3155,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>214</v>
@@ -3184,16 +3184,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>215</v>
@@ -3201,15 +3201,9 @@
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3219,26 +3213,32 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3248,19 +3248,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>220</v>
@@ -3306,19 +3306,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3335,16 +3335,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>223</v>
@@ -3364,19 +3364,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3422,19 +3422,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3451,19 +3451,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3480,19 +3480,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3509,19 +3509,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3538,19 +3538,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3567,19 +3567,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -3596,19 +3596,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3625,19 +3625,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3654,19 +3654,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3683,19 +3683,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3712,32 +3712,26 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3747,19 +3741,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3771,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3782,19 +3776,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3806,7 +3800,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -3817,19 +3811,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -3841,7 +3835,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -3861,17 +3855,23 @@
         <v>259</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3881,32 +3881,26 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3916,22 +3910,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>15</v>
@@ -3940,7 +3934,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3960,17 +3954,23 @@
         <v>269</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3989,10 +3989,10 @@
         <v>269</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
@@ -4018,10 +4018,10 @@
         <v>269</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4038,32 +4038,26 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -4073,19 +4067,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
@@ -4097,7 +4091,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -4108,19 +4102,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -4132,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -4143,19 +4137,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4167,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -4178,19 +4172,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
@@ -4202,7 +4196,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4222,17 +4216,23 @@
         <v>298</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4251,10 +4251,10 @@
         <v>298</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
@@ -4280,10 +4280,10 @@
         <v>298</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -4309,10 +4309,10 @@
         <v>298</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -4329,32 +4329,26 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -4362,13 +4356,48 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O97">
+  <conditionalFormatting sqref="A2:O98">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O97">
+  <conditionalFormatting sqref="A2:O98">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
   <si>
     <t>DisplayName</t>
   </si>
@@ -73,51 +73,51 @@
     <t>#2PCJ8RVYG</t>
   </si>
   <si>
+    <t>Sugma</t>
+  </si>
+  <si>
+    <t>#LY9VP0P89</t>
+  </si>
+  <si>
+    <t>Mr. Mackey</t>
+  </si>
+  <si>
+    <t>#R8GP8RGC</t>
+  </si>
+  <si>
+    <t>skyeshade | BST</t>
+  </si>
+  <si>
+    <t>mikadochii</t>
+  </si>
+  <si>
+    <t>575761678759886858</t>
+  </si>
+  <si>
+    <t>skyeshade</t>
+  </si>
+  <si>
+    <t>#YY2YJ20C9</t>
+  </si>
+  <si>
+    <t>Anas | IST</t>
+  </si>
+  <si>
+    <t>zep_5yr</t>
+  </si>
+  <si>
+    <t>462073179888812034</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>#92L2PP09R</t>
+  </si>
+  <si>
     <t>Mem</t>
   </si>
   <si>
-    <t>Sugma</t>
-  </si>
-  <si>
-    <t>#LY9VP0P89</t>
-  </si>
-  <si>
-    <t>Mr. Mackey</t>
-  </si>
-  <si>
-    <t>#R8GP8RGC</t>
-  </si>
-  <si>
-    <t>skyeshade | BST</t>
-  </si>
-  <si>
-    <t>mikadochii</t>
-  </si>
-  <si>
-    <t>575761678759886858</t>
-  </si>
-  <si>
-    <t>skyeshade</t>
-  </si>
-  <si>
-    <t>#YY2YJ20C9</t>
-  </si>
-  <si>
-    <t>Anas | IST</t>
-  </si>
-  <si>
-    <t>zep_5yr</t>
-  </si>
-  <si>
-    <t>462073179888812034</t>
-  </si>
-  <si>
-    <t>Anas</t>
-  </si>
-  <si>
-    <t>#92L2PP09R</t>
-  </si>
-  <si>
     <t>Mini @ñ@$</t>
   </si>
   <si>
@@ -475,15 +475,18 @@
     <t>#G9C8GL2VQ</t>
   </si>
   <si>
+    <t>hype | MT</t>
+  </si>
+  <si>
+    <t>hyype99</t>
+  </si>
+  <si>
+    <t>254578796542427136</t>
+  </si>
+  <si>
     <t>hype</t>
   </si>
   <si>
-    <t>hyype99</t>
-  </si>
-  <si>
-    <t>254578796542427136</t>
-  </si>
-  <si>
     <t>#2GRPGV892</t>
   </si>
   <si>
@@ -535,19 +538,37 @@
     <t>#RV920PR9</t>
   </si>
   <si>
-    <t>Kaselcap | CST</t>
-  </si>
-  <si>
-    <t>kaselcap</t>
-  </si>
-  <si>
-    <t>294645361639948288</t>
-  </si>
-  <si>
-    <t>Kaselcap</t>
-  </si>
-  <si>
-    <t>#LU2YC0L</t>
+    <t>Marlec | CEST</t>
+  </si>
+  <si>
+    <t>.marlec</t>
+  </si>
+  <si>
+    <t>411813372372320258</t>
+  </si>
+  <si>
+    <t>Marlec 2.0</t>
+  </si>
+  <si>
+    <t>#LPUG2Y9LU</t>
+  </si>
+  <si>
+    <t>MARL3C</t>
+  </si>
+  <si>
+    <t>#LLURQLJ2P</t>
+  </si>
+  <si>
+    <t>Marlouc</t>
+  </si>
+  <si>
+    <t>#QCJVLLQCL</t>
+  </si>
+  <si>
+    <t>Marlec</t>
+  </si>
+  <si>
+    <t>#LVQ9PPQVY</t>
   </si>
   <si>
     <t>Ascended | IST</t>
@@ -782,24 +803,6 @@
   </si>
   <si>
     <t>#Q00RGJVVR</t>
-  </si>
-  <si>
-    <t>K.L.A.U.S</t>
-  </si>
-  <si>
-    <t>cherryyy___</t>
-  </si>
-  <si>
-    <t>449438899333365771</t>
-  </si>
-  <si>
-    <t>#LPYRGCUQC</t>
-  </si>
-  <si>
-    <t>K.L.A.U.S v2</t>
-  </si>
-  <si>
-    <t>#GY9UQQY82</t>
   </si>
   <si>
     <t>SirFluffyy</t>
@@ -1332,15 +1335,9 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1359,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -1388,10 +1385,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1408,19 +1405,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -1443,31 +1440,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1478,13 +1475,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -1507,13 +1504,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -1560,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1769,7 +1766,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1804,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1868,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1996,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2066,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2194,7 +2191,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2229,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2264,7 +2261,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2299,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2369,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2404,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2439,7 +2436,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2509,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2544,7 +2541,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2579,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2634,10 +2631,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
@@ -2649,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2669,10 +2666,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -2698,10 +2695,10 @@
         <v>156</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -2718,19 +2715,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -2742,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2753,19 +2750,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -2777,7 +2774,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2788,19 +2785,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -2812,7 +2809,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2823,32 +2820,26 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2858,32 +2849,26 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2893,19 +2878,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2922,26 +2907,32 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2951,20 +2942,20 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2975,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2986,32 +2977,26 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3021,32 +3006,26 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3056,19 +3035,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -3080,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3091,19 +3070,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
@@ -3115,7 +3094,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3126,26 +3105,32 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3155,26 +3140,32 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3184,26 +3175,32 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3213,32 +3210,26 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3248,19 +3239,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3277,19 +3268,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3306,26 +3297,32 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3335,19 +3332,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3364,19 +3361,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3393,19 +3390,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3422,19 +3419,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3451,19 +3448,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3480,19 +3477,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3509,19 +3506,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3538,19 +3535,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3567,19 +3564,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -3596,19 +3593,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3625,19 +3622,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3654,19 +3651,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3683,19 +3680,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3712,19 +3709,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -3741,32 +3738,26 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3776,32 +3767,26 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3811,32 +3796,26 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3846,19 +3825,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
@@ -3870,7 +3849,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -3881,26 +3860,32 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3910,20 +3895,20 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
       </c>
@@ -3934,7 +3919,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3945,22 +3930,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>15</v>
@@ -3969,7 +3954,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3980,26 +3965,32 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4009,19 +4000,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4038,19 +4029,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -4067,32 +4058,26 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4102,20 +4087,20 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
       </c>
@@ -4126,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -4137,20 +4122,20 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4161,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -4172,20 +4157,20 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4181,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4207,20 +4192,20 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -4242,26 +4227,32 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4271,19 +4262,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -4300,19 +4291,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -4329,19 +4320,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -4358,32 +4349,26 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -4391,13 +4376,48 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O98">
+  <conditionalFormatting sqref="A2:O99">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O98">
+  <conditionalFormatting sqref="A2:O99">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="310">
   <si>
     <t>DisplayName</t>
   </si>
@@ -637,21 +637,6 @@
     <t>#2Y88YLL99</t>
   </si>
   <si>
-    <t>CrazyWaveIT | EST</t>
-  </si>
-  <si>
-    <t>crazywaveit</t>
-  </si>
-  <si>
-    <t>642147006776868920</t>
-  </si>
-  <si>
-    <t>CrazyWaveIT</t>
-  </si>
-  <si>
-    <t>#YLUL9Q9JG</t>
-  </si>
-  <si>
     <t>Motz</t>
   </si>
   <si>
@@ -664,15 +649,18 @@
     <t>#G8L8PU8C</t>
   </si>
   <si>
+    <t>Good | EST</t>
+  </si>
+  <si>
+    <t>good0002</t>
+  </si>
+  <si>
+    <t>1168318917014470825</t>
+  </si>
+  <si>
     <t>Good</t>
   </si>
   <si>
-    <t>good0002</t>
-  </si>
-  <si>
-    <t>1168318917014470825</t>
-  </si>
-  <si>
     <t>#QGVR90V0G</t>
   </si>
   <si>
@@ -796,7 +784,7 @@
     <t>Welli</t>
   </si>
   <si>
-    <t>fischusmaximus</t>
+    <t>wellenreiter2006</t>
   </si>
   <si>
     <t>692129916858269736</t>
@@ -2091,9 +2079,15 @@
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3149,11 +3143,11 @@
         <v>210</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3175,16 +3169,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>216</v>
@@ -3192,15 +3186,9 @@
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3210,19 +3198,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3239,19 +3227,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3268,26 +3256,32 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3297,32 +3291,26 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3332,19 +3320,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3361,19 +3349,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3390,19 +3378,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3419,19 +3407,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3448,19 +3436,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3477,19 +3465,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3506,19 +3494,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3535,19 +3523,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3564,19 +3552,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -3593,19 +3581,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3622,19 +3610,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3651,19 +3639,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3680,19 +3668,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3709,19 +3697,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -3738,19 +3726,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3767,19 +3755,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3796,16 +3784,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>251</v>
@@ -3813,9 +3801,15 @@
       <c r="F81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3939,13 +3933,13 @@
         <v>266</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>15</v>
@@ -3954,7 +3948,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3965,22 +3959,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>15</v>
@@ -3989,7 +3983,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -4000,19 +3994,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4029,19 +4023,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -4058,26 +4052,32 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4087,16 +4087,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>284</v>
@@ -4131,10 +4131,10 @@
         <v>287</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>290</v>
@@ -4166,11 +4166,11 @@
         <v>291</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>294</v>
@@ -4201,10 +4201,10 @@
         <v>295</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
@@ -4216,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -4227,32 +4227,26 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4262,19 +4256,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -4291,19 +4285,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -4320,19 +4314,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -4349,16 +4343,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>309</v>
@@ -4366,9 +4360,15 @@
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -4376,48 +4376,13 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O99">
+  <conditionalFormatting sqref="A2:O98">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O99">
+  <conditionalFormatting sqref="A2:O98">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="332">
   <si>
     <t>DisplayName</t>
   </si>
@@ -73,6 +73,9 @@
     <t>#2PCJ8RVYG</t>
   </si>
   <si>
+    <t>Mem</t>
+  </si>
+  <si>
     <t>Sugma</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>#92L2PP09R</t>
   </si>
   <si>
-    <t>Mem</t>
-  </si>
-  <si>
     <t>Mini @ñ@$</t>
   </si>
   <si>
@@ -331,18 +331,6 @@
     <t>#99Q0R0YQ9</t>
   </si>
   <si>
-    <t>Az7777</t>
-  </si>
-  <si>
-    <t>11111111111764</t>
-  </si>
-  <si>
-    <t>852669877407711272</t>
-  </si>
-  <si>
-    <t>#QYLURLQ2</t>
-  </si>
-  <si>
     <t>Dalto</t>
   </si>
   <si>
@@ -439,15 +427,6 @@
     <t>#PG2Y8RGU</t>
   </si>
   <si>
-    <t>appable</t>
-  </si>
-  <si>
-    <t>529061226819485727</t>
-  </si>
-  <si>
-    <t>#CVYG8LU</t>
-  </si>
-  <si>
     <t>Carsonn</t>
   </si>
   <si>
@@ -538,6 +517,30 @@
     <t>#RV920PR9</t>
   </si>
   <si>
+    <t>Sphinx</t>
+  </si>
+  <si>
+    <t>sinofgreed5085</t>
+  </si>
+  <si>
+    <t>383151051425054731</t>
+  </si>
+  <si>
+    <t>Sin Of Greed</t>
+  </si>
+  <si>
+    <t>#9PR280J8J</t>
+  </si>
+  <si>
+    <t>AMIXUS 2</t>
+  </si>
+  <si>
+    <t>#9VVYGPUQP</t>
+  </si>
+  <si>
+    <t>#P8VUQU0RJ</t>
+  </si>
+  <si>
     <t>Marlec | CEST</t>
   </si>
   <si>
@@ -569,6 +572,69 @@
   </si>
   <si>
     <t>#LVQ9PPQVY</t>
+  </si>
+  <si>
+    <t>Selug</t>
+  </si>
+  <si>
+    <t>#G99UVRLU0</t>
+  </si>
+  <si>
+    <t>jovc</t>
+  </si>
+  <si>
+    <t>#QJL2UG902</t>
+  </si>
+  <si>
+    <t>timi bää 7</t>
+  </si>
+  <si>
+    <t>#G02PPURRQ</t>
+  </si>
+  <si>
+    <t>Marlec9207</t>
+  </si>
+  <si>
+    <t>#P8QYVVV2J</t>
+  </si>
+  <si>
+    <t>Houdi</t>
+  </si>
+  <si>
+    <t>#PPPUUUQ20</t>
+  </si>
+  <si>
+    <t>BU$HI</t>
+  </si>
+  <si>
+    <t>#G29YQ8VUP</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>#L0RL9RP0Y</t>
+  </si>
+  <si>
+    <t>Luther</t>
+  </si>
+  <si>
+    <t>#L822V0G9L</t>
+  </si>
+  <si>
+    <t>CrazyWaveIT | EST</t>
+  </si>
+  <si>
+    <t>terntenodo</t>
+  </si>
+  <si>
+    <t>485310245929877534</t>
+  </si>
+  <si>
+    <t>CrazyWaveIT</t>
+  </si>
+  <si>
+    <t>#YLUL9Q9JG</t>
   </si>
   <si>
     <t>Ascended | IST</t>
@@ -980,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -991,9 +1057,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1323,9 +1386,15 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1344,10 +1413,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -1373,10 +1442,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1393,19 +1462,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -1428,19 +1497,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1452,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1463,13 +1532,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -1492,13 +1561,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -1545,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1754,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1789,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1853,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1981,7 +2050,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2051,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2086,7 +2155,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2112,7 +2181,7 @@
         <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -2185,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2198,7 +2267,7 @@
       <c r="A31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2220,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2255,7 +2324,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2290,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2325,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2360,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2380,10 +2449,10 @@
         <v>128</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2395,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2406,16 +2475,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>134</v>
@@ -2430,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2444,16 +2513,16 @@
         <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -2465,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2476,7 +2545,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>139</v>
@@ -2485,7 +2554,7 @@
         <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>141</v>
@@ -2500,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2514,16 +2583,16 @@
         <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -2535,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2546,19 +2615,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -2570,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2581,13 +2650,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>152</v>
@@ -2598,15 +2667,9 @@
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2616,32 +2679,26 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2651,26 +2708,32 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2680,26 +2743,32 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2709,19 +2778,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -2733,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2744,32 +2813,26 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2779,16 +2842,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>174</v>
@@ -2796,15 +2859,9 @@
       <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2814,26 +2871,32 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2843,19 +2906,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -2872,19 +2935,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2901,32 +2964,26 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2936,20 +2993,20 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2960,7 +3017,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2971,19 +3028,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -3000,19 +3057,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -3029,32 +3086,26 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3064,32 +3115,26 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3099,32 +3144,26 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3134,32 +3173,26 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3169,19 +3202,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3198,19 +3231,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3227,26 +3260,32 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3256,20 +3295,20 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3291,19 +3330,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3320,19 +3359,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3349,26 +3388,32 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3378,26 +3423,32 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -3407,26 +3458,32 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -3436,26 +3493,32 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3465,19 +3528,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3494,19 +3557,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3523,19 +3586,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3552,26 +3615,32 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3581,19 +3650,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3610,19 +3679,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3639,19 +3708,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3668,19 +3737,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3697,19 +3766,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -3726,19 +3795,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3755,19 +3824,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3784,32 +3853,26 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3819,32 +3882,26 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3854,32 +3911,26 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3889,32 +3940,26 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -3924,32 +3969,26 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3959,32 +3998,26 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -3994,19 +4027,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -4023,19 +4056,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -4052,32 +4085,26 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4087,32 +4114,26 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -4122,19 +4143,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4146,7 +4167,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -4157,19 +4178,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
@@ -4181,7 +4202,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4192,19 +4213,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
@@ -4216,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -4227,26 +4248,32 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4256,26 +4283,32 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -4285,26 +4318,32 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -4314,19 +4353,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -4343,32 +4382,26 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -4376,13 +4409,339 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O98">
+  <conditionalFormatting sqref="A2:O108">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O98">
+  <conditionalFormatting sqref="A2:O108">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
   <si>
     <t>DisplayName</t>
   </si>
@@ -85,6 +85,33 @@
     <t>#R8GP8RGC</t>
   </si>
   <si>
+    <t>Taycid</t>
+  </si>
+  <si>
+    <t>taycid</t>
+  </si>
+  <si>
+    <t>450090232772296735</t>
+  </si>
+  <si>
+    <t>#CQGRV8L0</t>
+  </si>
+  <si>
+    <t>Mem</t>
+  </si>
+  <si>
+    <t>ChrisThe7th</t>
+  </si>
+  <si>
+    <t>tsabakalos</t>
+  </si>
+  <si>
+    <t>701851440619978874</t>
+  </si>
+  <si>
+    <t>#YR9YQP02C</t>
+  </si>
+  <si>
     <t>skyeshade | BST</t>
   </si>
   <si>
@@ -100,6 +127,18 @@
     <t>#YY2YJ20C9</t>
   </si>
   <si>
+    <t>redking</t>
+  </si>
+  <si>
+    <t>redking347</t>
+  </si>
+  <si>
+    <t>822388373938372668</t>
+  </si>
+  <si>
+    <t>#QQLLUPVV</t>
+  </si>
+  <si>
     <t>Anas | IST</t>
   </si>
   <si>
@@ -115,9 +154,6 @@
     <t>#92L2PP09R</t>
   </si>
   <si>
-    <t>Mem</t>
-  </si>
-  <si>
     <t>Mini @ñ@$</t>
   </si>
   <si>
@@ -130,135 +166,72 @@
     <t>#Y9G2LGRVJ</t>
   </si>
   <si>
-    <t>Limit?</t>
-  </si>
-  <si>
-    <t>simptzy</t>
-  </si>
-  <si>
-    <t>661656968351580182</t>
-  </si>
-  <si>
-    <t>Zeus</t>
-  </si>
-  <si>
-    <t>#82J0GRCCP</t>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>tacobandito</t>
+  </si>
+  <si>
+    <t>207594024389967875</t>
+  </si>
+  <si>
+    <t>#Q92UQQJCR</t>
+  </si>
+  <si>
+    <t>Eld</t>
+  </si>
+  <si>
+    <t>Satan</t>
+  </si>
+  <si>
+    <t>jmac4173</t>
+  </si>
+  <si>
+    <t>395604181731246090</t>
+  </si>
+  <si>
+    <t>#YJU92GY</t>
+  </si>
+  <si>
+    <t>sham</t>
+  </si>
+  <si>
+    <t>shamm._.</t>
+  </si>
+  <si>
+    <t>670596160947355650</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>#9QGJ2RC2V</t>
+  </si>
+  <si>
+    <t>BumblinMumbler | EST</t>
+  </si>
+  <si>
+    <t>bumblinmumbler</t>
+  </si>
+  <si>
+    <t>145231107112042496</t>
+  </si>
+  <si>
+    <t>BumblinMumbler2</t>
+  </si>
+  <si>
+    <t>#YPQ2UJUQR</t>
+  </si>
+  <si>
+    <t>BumblinMumbler</t>
+  </si>
+  <si>
+    <t>#JCCLVR8R</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Clasher</t>
-  </si>
-  <si>
-    <t>#L22PL8VPC</t>
-  </si>
-  <si>
-    <t>Agent Limit</t>
-  </si>
-  <si>
-    <t>#VCQUYPR</t>
-  </si>
-  <si>
-    <t>Simp4Kay</t>
-  </si>
-  <si>
-    <t>#UCG9R0VV</t>
-  </si>
-  <si>
-    <t>Swarm</t>
-  </si>
-  <si>
-    <t>#20CUYLRR0</t>
-  </si>
-  <si>
-    <t>#LGPGYJGQG</t>
-  </si>
-  <si>
-    <t>NagaStoleMyBike | BST</t>
-  </si>
-  <si>
-    <t>napalm360</t>
-  </si>
-  <si>
-    <t>143002439514193920</t>
-  </si>
-  <si>
-    <t>NagaStoleMyBike</t>
-  </si>
-  <si>
-    <t>#9V2GRVGU</t>
-  </si>
-  <si>
-    <t>Purple Aki</t>
-  </si>
-  <si>
-    <t>#LGV0J9YPY</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>tacobandito</t>
-  </si>
-  <si>
-    <t>207594024389967875</t>
-  </si>
-  <si>
-    <t>#Q92UQQJCR</t>
-  </si>
-  <si>
-    <t>Eld</t>
-  </si>
-  <si>
-    <t>Satan</t>
-  </si>
-  <si>
-    <t>jmac4173</t>
-  </si>
-  <si>
-    <t>395604181731246090</t>
-  </si>
-  <si>
-    <t>#YJU92GY</t>
-  </si>
-  <si>
-    <t>sham</t>
-  </si>
-  <si>
-    <t>shamm._.</t>
-  </si>
-  <si>
-    <t>670596160947355650</t>
-  </si>
-  <si>
-    <t>Sham</t>
-  </si>
-  <si>
-    <t>#9QGJ2RC2V</t>
-  </si>
-  <si>
-    <t>BumblinMumbler | EST</t>
-  </si>
-  <si>
-    <t>bumblinmumbler</t>
-  </si>
-  <si>
-    <t>145231107112042496</t>
-  </si>
-  <si>
-    <t>BumblinMumbler2</t>
-  </si>
-  <si>
-    <t>#YPQ2UJUQR</t>
-  </si>
-  <si>
-    <t>BumblinMumbler</t>
-  </si>
-  <si>
-    <t>#JCCLVR8R</t>
-  </si>
-  <si>
     <t>BumblinMumbler3</t>
   </si>
   <si>
@@ -280,6 +253,21 @@
     <t>#99Q0R0YQ9</t>
   </si>
   <si>
+    <t>Apollo | AWST</t>
+  </si>
+  <si>
+    <t>apollo2093</t>
+  </si>
+  <si>
+    <t>253429668118659072</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>#9GGGQP0V</t>
+  </si>
+  <si>
     <t>Dalto</t>
   </si>
   <si>
@@ -454,7 +442,7 @@
     <t>#QPVGQ0C9</t>
   </si>
   <si>
-    <t>BB Crazy #2YPJYLJRR</t>
+    <t>BB Crazy |</t>
   </si>
   <si>
     <t>swagman8008</t>
@@ -517,6 +505,18 @@
     <t>#RV920PR9</t>
   </si>
   <si>
+    <t>⚡ TANJIRO ⚡</t>
+  </si>
+  <si>
+    <t>trulygreg520</t>
+  </si>
+  <si>
+    <t>1426860767889850411</t>
+  </si>
+  <si>
+    <t>#8LR8LULVU</t>
+  </si>
+  <si>
     <t>Marlec | CEST</t>
   </si>
   <si>
@@ -718,6 +718,18 @@
     <t>#YL8ULJC9</t>
   </si>
   <si>
+    <t>jerrb</t>
+  </si>
+  <si>
+    <t>jordan.org</t>
+  </si>
+  <si>
+    <t>282701215656312833</t>
+  </si>
+  <si>
+    <t>#QURLUVVRP</t>
+  </si>
+  <si>
     <t>Rod</t>
   </si>
   <si>
@@ -884,18 +896,6 @@
   </si>
   <si>
     <t>#YPL2Y2QYQ</t>
-  </si>
-  <si>
-    <t>yashwanth</t>
-  </si>
-  <si>
-    <t>dollar0394</t>
-  </si>
-  <si>
-    <t>1156624383620694086</t>
-  </si>
-  <si>
-    <t>#YQCL028J0</t>
   </si>
 </sst>
 </file>
@@ -1354,22 +1354,22 @@
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1389,11 +1389,11 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1415,26 +1415,32 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1444,26 +1450,32 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1473,26 +1485,32 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1502,19 +1520,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1531,19 +1549,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -1560,26 +1578,32 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1589,26 +1613,32 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1618,22 +1648,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>15</v>
@@ -1642,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1653,32 +1683,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1688,26 +1712,32 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1717,32 +1747,26 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1752,19 +1776,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1776,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1787,19 +1811,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
@@ -1811,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1822,19 +1846,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1846,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1857,22 +1881,22 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
@@ -1881,7 +1905,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1892,26 +1916,32 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1921,19 +1951,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -1945,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1956,19 +1986,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -1980,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1991,19 +2021,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
@@ -2015,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2026,19 +2056,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -2050,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2061,19 +2091,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -2085,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2096,19 +2126,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -2120,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2131,19 +2161,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
@@ -2155,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2166,19 +2196,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -2190,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2201,19 +2231,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
@@ -2225,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2236,19 +2266,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -2260,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2271,32 +2301,26 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2306,32 +2330,26 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2341,19 +2359,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2365,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2376,19 +2394,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -2400,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2411,26 +2429,32 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2440,26 +2464,32 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2469,19 +2499,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -2493,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2504,19 +2534,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -2528,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2539,32 +2569,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2574,32 +2598,26 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2609,32 +2627,26 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2653,17 +2665,23 @@
         <v>170</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2682,10 +2700,10 @@
         <v>170</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -2711,10 +2729,10 @@
         <v>170</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -2740,23 +2758,17 @@
         <v>170</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2775,10 +2787,10 @@
         <v>170</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2804,10 +2816,10 @@
         <v>170</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -2833,10 +2845,10 @@
         <v>170</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2862,10 +2874,10 @@
         <v>170</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2891,10 +2903,10 @@
         <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -2911,26 +2923,32 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2940,26 +2958,32 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2969,26 +2993,32 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2998,32 +3028,26 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3033,32 +3057,26 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3068,19 +3086,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3092,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3103,26 +3121,32 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3132,19 +3156,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3156,7 +3180,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3167,19 +3191,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3191,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3202,19 +3226,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3226,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3237,19 +3261,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3261,7 +3285,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3272,19 +3296,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3296,7 +3320,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3307,19 +3331,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3331,7 +3355,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -3342,19 +3366,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3366,7 +3390,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3377,32 +3401,26 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -3412,22 +3430,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>15</v>
@@ -3436,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -3447,19 +3465,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3476,32 +3494,26 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3511,19 +3523,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3540,26 +3552,32 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3569,26 +3587,32 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3598,19 +3622,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3622,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3633,19 +3657,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3657,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3668,19 +3692,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3692,7 +3716,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3703,32 +3727,26 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3738,32 +3756,26 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3773,19 +3785,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3802,19 +3814,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -3829,106 +3841,13 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O84">
+  <conditionalFormatting sqref="A2:O81">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O84">
+  <conditionalFormatting sqref="A2:O81">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/xray-members.xlsx
+++ b/xray-members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="285">
   <si>
     <t>DisplayName</t>
   </si>
@@ -40,10 +40,58 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Sned | PST</t>
+  </si>
+  <si>
+    <t>snedpie</t>
+  </si>
+  <si>
+    <t>267768619205656577</t>
+  </si>
+  <si>
+    <t>Sned</t>
+  </si>
+  <si>
+    <t>#P2UPPVYL</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Reddit X-ray</t>
+  </si>
+  <si>
+    <t>#2922CY2R</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Sned 2.0</t>
+  </si>
+  <si>
+    <t>#L9Y9J88LL</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I Sofa King</t>
+  </si>
+  <si>
+    <t>#22VQR9VC</t>
+  </si>
+  <si>
+    <t>Sned 3.0</t>
+  </si>
+  <si>
+    <t>#LQLUPJG2R</t>
+  </si>
+  <si>
     <t>Smitty™ | EST</t>
   </si>
   <si>
-    <t>serzicc</t>
+    <t>eyezic_x</t>
   </si>
   <si>
     <t>376863347871842315</t>
@@ -55,15 +103,6 @@
     <t>#9LCPQ0QR</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Reddit X-ray</t>
-  </si>
-  <si>
-    <t>#2922CY2R</t>
-  </si>
-  <si>
     <t>Co</t>
   </si>
   <si>
@@ -73,6 +112,9 @@
     <t>#2PCJ8RVYG</t>
   </si>
   <si>
+    <t>Mem</t>
+  </si>
+  <si>
     <t>Sugma</t>
   </si>
   <si>
@@ -97,9 +139,6 @@
     <t>#CQGRV8L0</t>
   </si>
   <si>
-    <t>Mem</t>
-  </si>
-  <si>
     <t>ChrisThe7th</t>
   </si>
   <si>
@@ -139,6 +178,12 @@
     <t>#QQLLUPVV</t>
   </si>
   <si>
+    <t>WAR MACHINE</t>
+  </si>
+  <si>
+    <t>#P09U0P0PY</t>
+  </si>
+  <si>
     <t>Anas | IST</t>
   </si>
   <si>
@@ -166,6 +211,27 @@
     <t>#Y9G2LGRVJ</t>
   </si>
   <si>
+    <t>NagaStoleMyBike | BST</t>
+  </si>
+  <si>
+    <t>napalm360</t>
+  </si>
+  <si>
+    <t>143002439514193920</t>
+  </si>
+  <si>
+    <t>NagaStoleMyBike</t>
+  </si>
+  <si>
+    <t>#9V2GRVGU</t>
+  </si>
+  <si>
+    <t>Purple Aki</t>
+  </si>
+  <si>
+    <t>#LGV0J9YPY</t>
+  </si>
+  <si>
     <t>pg</t>
   </si>
   <si>
@@ -193,21 +259,6 @@
     <t>#YJU92GY</t>
   </si>
   <si>
-    <t>sham</t>
-  </si>
-  <si>
-    <t>shamm._.</t>
-  </si>
-  <si>
-    <t>670596160947355650</t>
-  </si>
-  <si>
-    <t>Sham</t>
-  </si>
-  <si>
-    <t>#9QGJ2RC2V</t>
-  </si>
-  <si>
     <t>BumblinMumbler | EST</t>
   </si>
   <si>
@@ -229,9 +280,6 @@
     <t>#JCCLVR8R</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>BumblinMumbler3</t>
   </si>
   <si>
@@ -253,6 +301,18 @@
     <t>#99Q0R0YQ9</t>
   </si>
   <si>
+    <t>Dr. Stone</t>
+  </si>
+  <si>
+    <t>dr.stone0476</t>
+  </si>
+  <si>
+    <t>1431507828652245013</t>
+  </si>
+  <si>
+    <t>#LQ2P0CQGU</t>
+  </si>
+  <si>
     <t>Apollo | AWST</t>
   </si>
   <si>
@@ -268,18 +328,6 @@
     <t>#9GGGQP0V</t>
   </si>
   <si>
-    <t>Dalto</t>
-  </si>
-  <si>
-    <t>dalto9</t>
-  </si>
-  <si>
-    <t>384761275206336512</t>
-  </si>
-  <si>
-    <t>#U8J0QYG</t>
-  </si>
-  <si>
     <t>Mythos</t>
   </si>
   <si>
@@ -304,7 +352,7 @@
     <t>#U2LJ0QVP</t>
   </si>
   <si>
-    <t>osiris8282 | PST</t>
+    <t>osiris8282 | BST</t>
   </si>
   <si>
     <t>osiris8282</t>
@@ -316,18 +364,6 @@
     <t>#Y828RV982</t>
   </si>
   <si>
-    <t>sanskar</t>
-  </si>
-  <si>
-    <t>saiyanrazor.</t>
-  </si>
-  <si>
-    <t>704688074109485157</t>
-  </si>
-  <si>
-    <t>#PL8Y90YGG</t>
-  </si>
-  <si>
     <t>Truthful Lies</t>
   </si>
   <si>
@@ -703,21 +739,6 @@
     <t>#8YUL2LC0</t>
   </si>
   <si>
-    <t>Chxpel</t>
-  </si>
-  <si>
-    <t>cschwingg</t>
-  </si>
-  <si>
-    <t>401467658354163724</t>
-  </si>
-  <si>
-    <t>chxpel</t>
-  </si>
-  <si>
-    <t>#YL8ULJC9</t>
-  </si>
-  <si>
     <t>jerrb</t>
   </si>
   <si>
@@ -772,42 +793,6 @@
     <t>#GY9UQQY82</t>
   </si>
   <si>
-    <t>Sned | PST</t>
-  </si>
-  <si>
-    <t>snedpie</t>
-  </si>
-  <si>
-    <t>267768619205656577</t>
-  </si>
-  <si>
-    <t>Sned</t>
-  </si>
-  <si>
-    <t>#P2UPPVYL</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Sned 2.0</t>
-  </si>
-  <si>
-    <t>#L9Y9J88LL</t>
-  </si>
-  <si>
-    <t>I Sofa King</t>
-  </si>
-  <si>
-    <t>#22VQR9VC</t>
-  </si>
-  <si>
-    <t>Sned 3.0</t>
-  </si>
-  <si>
-    <t>#LQLUPJG2R</t>
-  </si>
-  <si>
     <t>shadow | CST</t>
   </si>
   <si>
@@ -859,43 +844,28 @@
     <t>#29Q8CR280</t>
   </si>
   <si>
-    <t>LOGAN911 | IST</t>
-  </si>
-  <si>
-    <t>wolverine911</t>
-  </si>
-  <si>
-    <t>476968380579053610</t>
-  </si>
-  <si>
-    <t>LOGAN911</t>
-  </si>
-  <si>
-    <t>#YYRLUQ2J2</t>
-  </si>
-  <si>
-    <t>Kabby_21</t>
-  </si>
-  <si>
-    <t>#9QQCL8UPQ</t>
-  </si>
-  <si>
-    <t>Adibeast</t>
-  </si>
-  <si>
-    <t>#9RC0Y0QP2</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>#YL0J88LY2</t>
-  </si>
-  <si>
-    <t>DÈVÍL@MÅYÃÑK</t>
-  </si>
-  <si>
-    <t>#YPL2Y2QYQ</t>
+    <t>Kurane</t>
+  </si>
+  <si>
+    <t>paperkurane</t>
+  </si>
+  <si>
+    <t>265092463671115778</t>
+  </si>
+  <si>
+    <t>#Q0R8YPGVP</t>
+  </si>
+  <si>
+    <t>RipexFruit</t>
+  </si>
+  <si>
+    <t>irockudigme</t>
+  </si>
+  <si>
+    <t>1198432518416891936</t>
+  </si>
+  <si>
+    <t>#QRLVLRLQC</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1296,13 +1266,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1325,13 +1295,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1345,22 +1315,22 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1369,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1380,22 +1350,22 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1404,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1415,32 +1385,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1450,32 +1414,26 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1485,22 +1443,22 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
@@ -1509,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1529,17 +1487,23 @@
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1549,13 +1513,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -1564,11 +1528,17 @@
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1593,7 +1563,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
@@ -1602,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1613,32 +1583,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1648,22 +1612,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>15</v>
@@ -1672,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1683,22 +1647,22 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1712,32 +1676,26 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1747,26 +1705,32 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1776,32 +1740,26 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1811,22 +1769,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -1835,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1846,22 +1804,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -1870,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1881,32 +1839,26 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1916,19 +1868,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1940,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1951,32 +1903,26 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1986,22 +1932,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
@@ -2010,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2021,22 +1967,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>15</v>
@@ -2045,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2056,22 +2002,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
@@ -2080,7 +2026,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2091,22 +2037,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -2115,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2126,22 +2072,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>15</v>
@@ -2150,7 +2096,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2161,22 +2107,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>15</v>
@@ -2185,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2196,22 +2142,22 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>15</v>
@@ -2220,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2231,22 +2177,22 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>15</v>
@@ -2255,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2266,22 +2212,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>15</v>
@@ -2290,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2301,26 +2247,32 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2330,26 +2282,32 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2359,22 +2317,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>15</v>
@@ -2383,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2394,22 +2352,22 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>15</v>
@@ -2418,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2429,22 +2387,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>15</v>
@@ -2453,7 +2411,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2464,32 +2422,26 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2499,32 +2451,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2534,22 +2480,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>15</v>
@@ -2558,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2569,26 +2515,32 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2598,26 +2550,32 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2636,17 +2594,23 @@
         <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2656,22 +2620,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
@@ -2680,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2691,26 +2655,32 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2720,22 +2690,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2749,22 +2719,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2778,22 +2748,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2807,26 +2777,32 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2836,22 +2812,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2865,22 +2841,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2894,22 +2870,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2923,32 +2899,26 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2958,32 +2928,26 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2993,32 +2957,26 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3028,22 +2986,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3057,22 +3015,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3086,19 +3044,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3110,7 +3068,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3121,22 +3079,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>15</v>
@@ -3145,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3156,22 +3114,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>15</v>
@@ -3180,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3191,32 +3149,26 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3226,32 +3178,26 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3261,22 +3207,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>15</v>
@@ -3285,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3296,22 +3242,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>15</v>
@@ -3320,7 +3266,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3331,22 +3277,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>15</v>
@@ -3355,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -3366,22 +3312,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>15</v>
@@ -3390,7 +3336,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3401,26 +3347,32 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -3430,22 +3382,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>15</v>
@@ -3454,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -3465,26 +3417,32 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -3494,26 +3452,32 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3523,22 +3487,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -3552,22 +3516,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>15</v>
@@ -3576,7 +3540,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3587,22 +3551,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>15</v>
@@ -3611,7 +3575,7 @@
         <v>16</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -3622,22 +3586,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>15</v>
@@ -3646,7 +3610,7 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3657,22 +3621,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>15</v>
@@ -3681,7 +3645,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3692,22 +3656,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>15</v>
@@ -3716,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3727,26 +3691,32 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3754,100 +3724,13 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O81">
+  <conditionalFormatting sqref="A2:O78">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O81">
+  <conditionalFormatting sqref="A2:O78">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
